--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/45/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/45/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3663663663663664</v>
+        <v>0.9657965796579658</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1851.851851851852</v>
+        <v>1930.453045304531</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001601601601601602</v>
+        <v>0.03941394139413942</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6326326326326326</v>
+        <v>0.2469246924692469</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1833.833833833834</v>
+        <v>1134.083408340834</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.03903903903904</v>
+        <v>406.030603060306</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428.4284284284284</v>
+        <v>851.9333933393339</v>
       </c>
     </row>
   </sheetData>
